--- a/Excels/Levels.xlsx
+++ b/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>唯一标识</t>
   </si>
@@ -37,10 +37,16 @@
     <t>关卡名字</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>PrefabUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1005,80 +1011,106 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Levels.xlsx
+++ b/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="21240" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>唯一标识</t>
   </si>
@@ -40,6 +40,12 @@
     <t>预制体</t>
   </si>
   <si>
+    <t>下一关Uid</t>
+  </si>
+  <si>
+    <t>上一关Uid</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>PrefabUid</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Pre</t>
   </si>
   <si>
     <t>string</t>
@@ -752,13 +764,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,21 +1016,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1035,82 +1042,130 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Levels.xlsx
+++ b/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>唯一标识</t>
   </si>
@@ -40,6 +40,9 @@
     <t>预制体</t>
   </si>
   <si>
+    <t>纹理</t>
+  </si>
+  <si>
     <t>下一关Uid</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>PrefabUid</t>
   </si>
   <si>
+    <t>Textures</t>
+  </si>
+  <si>
     <t>Next</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>string+</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
   </si>
   <si>
     <t>桃园结义</t>
+  </si>
+  <si>
+    <t>Sprite_Level</t>
   </si>
   <si>
     <t>黄巾之乱</t>
@@ -1016,23 +1028,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1048,123 +1061,147 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Excels/Levels.xlsx
+++ b/Excels/Levels.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>唯一标识</t>
   </si>
@@ -79,19 +79,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>桃园结义</t>
-  </si>
-  <si>
     <t>Sprite_Level</t>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-  </si>
-  <si>
-    <t>官渡之战</t>
-  </si>
-  <si>
-    <t>赤壁之战</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1019,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1129,14 +1117,14 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1149,14 +1137,14 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+      <c r="B6" s="1">
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1169,14 +1157,14 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="1">
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1189,14 +1177,14 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" s="1">
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
